--- a/data/trans_orig/P34A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Clase-trans_orig.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables originales" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2023" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +532,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre en 2023 (Tasa respuesta: 99,71%)</t>
+          <t>Población según el tipo de ejercicio físico que realizan en su tiempo libre / solo 2023 en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +556,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -584,65 +596,95 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>n (muestra)</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>N (estimada)</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
         <is>
           <t>Estimación puntual</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>lím inf IC</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="W2" s="3" t="inlineStr">
         <is>
           <t>lím sup IC</t>
         </is>
@@ -666,6 +708,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -675,70 +723,112 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>84</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>88155</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>88155</t>
+        </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>71292</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>108839</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>17,54%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,38%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>21,54%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>67506</v>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21,65%</t>
+        </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>67506</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>55373</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>83350</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>15,09%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>12,13%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>18,61%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>178</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>155661</v>
-      </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>18,63%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>155661</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>133986</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>178946</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
           <t>16,38%</t>
         </is>
       </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>14,01%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
-        <is>
-          <t>18,89%</t>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>18,83%</t>
         </is>
       </c>
     </row>
@@ -746,70 +836,112 @@
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>70687</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>70687</t>
+        </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>55632</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>87535</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>14,06%</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>11,08%</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>17,53%</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>53635</v>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>11,07%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17,41%</t>
+        </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>53635</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>40881</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>68782</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>11,99%</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>9,21%</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>15,47%</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>140</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>124323</v>
-      </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
+          <t>9,14%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>15,37%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>124323</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>103376</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>145030</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
           <t>13,08%</t>
         </is>
       </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>11,02%</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr">
-        <is>
-          <t>15,43%</t>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>10,88%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>15,26%</t>
         </is>
       </c>
     </row>
@@ -817,70 +949,112 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>251</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>207651</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>207651</t>
+        </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
+          <t>186454</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>232093</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>41,31%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>37,03%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>45,76%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>363</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>222519</v>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>37,09%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>46,17%</t>
+        </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>222519</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>202918</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>239078</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>49,73%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>46,03%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>53,86%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>614</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>430169</v>
-      </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
+          <t>45,35%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>53,43%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>430169</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>403864</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>460205</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
           <t>45,27%</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>42,43%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>48,28%</t>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>42,51%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>48,44%</t>
         </is>
       </c>
     </row>
@@ -888,70 +1062,112 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>145</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>136174</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>86641</t>
+        </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>70461</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,06%</t>
+          <t>103664</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,18%</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>161</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>103807</v>
+          <t>17,24%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>14,02%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>19,99%</t>
+          <t>51427</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,71%</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="n">
-        <v>306</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>239981</v>
+          <t>40988</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>63581</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>11,49%</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>25,26%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>22,66%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>27,96%</t>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>138068</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>118373</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>158305</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>14,53%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>12,46%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>16,66%</t>
         </is>
       </c>
     </row>
@@ -959,216 +1175,342 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>552</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>502667</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>49533</t>
+        </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>37634</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67696</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>686</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>447467</v>
+          <t>9,85%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7,49%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13,47%</t>
+        </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>52380</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="n">
-        <v>1238</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>950134</v>
+          <t>43201</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>66292</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,71%</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>9,65%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>101913</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>83870</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>121486</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>8,83%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Grupo III</t>
-        </is>
-      </c>
+      <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>70023</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>502667</t>
+        </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,48%</t>
+          <t>502667</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>502667</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>19,51%</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>44685</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>686</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>447467</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>125</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>114708</v>
+          <t>447467</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>447467</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>13,74%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>1238</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>950134</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>950134</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>950134</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>62924</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>70023</t>
+        </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>53390</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,36%</t>
+          <t>88502</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,52%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>27336</v>
+          <t>15,48%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>63</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>44685</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>90260</v>
+          <t>35513</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>58157</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>11,68%</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>10,81%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>114708</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>96386</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>139701</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>13,74%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>16,73%</t>
         </is>
       </c>
     </row>
@@ -1176,70 +1518,112 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>237</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>203735</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>62924</t>
+        </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,05%</t>
+          <t>48544</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>82117</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>49,69%</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>184950</v>
+          <t>13,91%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>10,73%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>18,16%</t>
+        </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>48,34%</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,04%</t>
+          <t>27336</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="n">
-        <v>532</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>388685</v>
+          <t>19670</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>38493</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>7,15%</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>46,56%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>43,28%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>90260</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>73133</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>110927</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>10,81%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>13,29%</t>
         </is>
       </c>
     </row>
@@ -1247,70 +1631,112 @@
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>126</v>
-      </c>
-      <c r="D12" s="2" t="n">
-        <v>115531</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>203735</t>
+        </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>183225</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>21,65%</t>
+          <t>227552</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>194</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>125609</v>
+          <t>45,05%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40,52%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>50,32%</t>
+        </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>32,83%</t>
+          <t>295</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>184950</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>320</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>241140</v>
+          <t>168780</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>201293</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>48,34%</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>28,89%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>52,61%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>31,67%</t>
+          <t>532</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>388685</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>362388</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>415461</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>46,56%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>43,41%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>49,77%</t>
         </is>
       </c>
     </row>
@@ -1318,145 +1744,225 @@
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>481</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>452213</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>79399</t>
+        </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>64121</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>97339</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>590</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>382580</v>
+          <t>17,56%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>14,18%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>21,53%</t>
+        </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>58073</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="n">
-        <v>1071</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>834793</v>
+          <t>47332</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>71748</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>15,18%</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>18,75%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>137472</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>119428</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>158413</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>16,47%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>14,31%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Grupo IV y V</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D14" s="2" t="n">
-        <v>45813</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>36132</t>
+        </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>26171</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>49501</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>10444</v>
+          <t>7,99%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5,79%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10,95%</t>
+        </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>103</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>67536</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>10,46%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>56257</v>
+          <t>55882</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>80839</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>14,61%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>103668</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>87555</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>124015</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>10,49%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>14,86%</t>
         </is>
       </c>
     </row>
@@ -1464,141 +1970,229 @@
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>36077</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>481</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>452213</t>
+        </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>452213</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>452213</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>12420</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>590</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>382580</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>48498</v>
+          <t>382580</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>382580</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>1071</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>834793</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>834793</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>834793</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>234</v>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>426702</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>45813</t>
+        </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>63,95%</t>
+          <t>17727</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>41,72%</t>
+          <t>79052</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>138</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>76266</v>
+          <t>6,87%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>11,85%</t>
+        </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>45,74%</t>
+          <t>14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>10444</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>52,07%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="n">
-        <v>372</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>502967</v>
+          <t>5231</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>16945</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,26%</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>60,31%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>42,56%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>82,27%</t>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>56257</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>22818</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>86835</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>6,75%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>10,41%</t>
         </is>
       </c>
     </row>
@@ -1606,70 +2200,112 @@
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>172</v>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>158681</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>36077</t>
+        </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>11254</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>64176</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>38,97%</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>117</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>67619</v>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9,62%</t>
+        </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>40,55%</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>34,8%</t>
+          <t>12420</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="n">
-        <v>289</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>226300</v>
+          <t>7625</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>19306</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>7,45%</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,58%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>39,73%</t>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>48498</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>19708</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>76152</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>9,13%</t>
         </is>
       </c>
     </row>
@@ -1677,145 +2313,225 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>487</v>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>667274</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>426702</t>
+        </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>277328</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>570994</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>288</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>166749</v>
+          <t>63,95%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>41,56%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>85,57%</t>
+        </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>138</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>76266</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="n">
-        <v>775</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>834022</v>
+          <t>65881</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>87385</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>45,74%</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>39,51%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>52,41%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>502967</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>357021</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>695347</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>60,31%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>42,81%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>83,37%</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Grupo VI</t>
-        </is>
-      </c>
+      <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>79873</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>78188</t>
+        </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,75%</t>
+          <t>30585</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>131359</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>54322</v>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>19,69%</t>
+        </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>41312</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="n">
-        <v>136</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>134195</v>
+          <t>33250</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>50839</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>24,78%</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>19,94%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>30,49%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>119500</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>50949</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>179090</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>14,33%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>6,11%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>21,47%</t>
         </is>
       </c>
     </row>
@@ -1823,70 +2539,112 @@
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>90</v>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>109898</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>80494</t>
+        </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>28154</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>133476</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>53416</v>
+          <t>12,06%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>46</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>26307</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="n">
-        <v>156</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>163313</v>
+          <t>19545</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>35248</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>15,78%</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>11,72%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>106800</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>44902</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>158517</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>19,01%</t>
         </is>
       </c>
     </row>
@@ -1894,141 +2652,229 @@
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>526</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>445947</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>667274</t>
+        </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>43,25%</t>
+          <t>667274</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>667274</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>46,15%</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>601</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>562954</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>57,59%</t>
+          <t>288</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>166749</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>78,66%</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="n">
-        <v>1127</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>1008901</v>
+          <t>166749</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>166749</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>43,77%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>65,55%</t>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>834022</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>834022</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>834022</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>431</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>395419</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>79873</t>
+        </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>61231</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>35,17%</t>
+          <t>104640</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>41,54%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="n">
-        <v>492</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>306863</v>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,15%</t>
+        </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>31,39%</t>
+          <t>69</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>54322</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>923</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>702282</v>
+          <t>29033</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>74932</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>5,56%</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>34,96%</t>
+          <t>2,97%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>24,09%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>39,74%</t>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>134195</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>93941</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>167873</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>4,68%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
         </is>
       </c>
     </row>
@@ -2036,145 +2882,225 @@
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>1114</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>1031136</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>109898</t>
+        </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>86590</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>137618</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="n">
-        <v>1228</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>977556</v>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>8,4%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>13,35%</t>
+        </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>53416</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="n">
-        <v>2342</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>2008692</v>
+          <t>25062</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>74160</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>163313</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>114983</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>200430</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>9,98%</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Grupo VII</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>40073</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>445947</t>
+        </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>8,47%</t>
+          <t>410651</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>484540</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>19243</v>
+          <t>43,25%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>39,83%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>46,99%</t>
+        </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>601</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>562954</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>59316</v>
+          <t>446844</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>755626</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>57,59%</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>45,71%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>1127</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1008901</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>880439</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1335023</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>50,23%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>43,83%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>66,46%</t>
         </is>
       </c>
     </row>
@@ -2182,70 +3108,112 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D25" s="2" t="n">
-        <v>57763</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>216662</t>
+        </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>189265</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>244323</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>21389</v>
+          <t>21,01%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>23,69%</t>
+        </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>239</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>137612</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="n">
-        <v>86</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>79152</v>
+          <t>79281</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>180141</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>4,59%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>354274</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>241640</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>409386</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>17,64%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>20,38%</t>
         </is>
       </c>
     </row>
@@ -2253,70 +3221,112 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>216</v>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>171432</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>178757</t>
+        </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>36,24%</t>
+          <t>153034</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>31,62%</t>
+          <t>206663</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="n">
-        <v>631</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>417738</v>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>14,84%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>20,04%</t>
+        </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>49,9%</t>
+          <t>253</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>43,22%</t>
+          <t>169251</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>61,4%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="n">
-        <v>847</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>589170</v>
+          <t>87813</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>220507</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>17,31%</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>22,56%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>53,27%</t>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>348008</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>232821</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>400580</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>17,33%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>19,94%</t>
         </is>
       </c>
     </row>
@@ -2324,216 +3334,342 @@
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>246</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>203725</v>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1031136</t>
+        </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>43,07%</t>
+          <t>1031136</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>38,16%</t>
+          <t>1031136</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>48,18%</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="n">
-        <v>586</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>378699</v>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>1228</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>34,81%</t>
+          <t>977556</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="n">
-        <v>832</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>582423</v>
+          <t>977556</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>977556</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>37,63%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>2342</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>2008692</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>2008692</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>2008692</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>545</v>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>472993</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>40073</t>
+        </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>27183</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>59320</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>1286</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>837069</v>
+          <t>8,47%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>12,54%</t>
+        </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>19243</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="n">
-        <v>1831</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>1310061</v>
+          <t>12757</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>27415</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>2,3%</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>59316</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>43116</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>82235</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>4,53%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="W28" s="2" t="inlineStr">
+        <is>
+          <t>6,28%</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>No ha trabajado</t>
-        </is>
-      </c>
+      <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="D29" s="2" t="n">
-        <v>65303</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>57763</t>
+        </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>27,15%</t>
+          <t>41252</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>77306</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>37,76%</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>35570</v>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>16,34%</t>
+        </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>21389</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>100873</v>
+          <t>13644</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>30610</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>79152</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>58745</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>102201</t>
+        </is>
+      </c>
+      <c r="U29" s="2" t="inlineStr">
+        <is>
+          <t>6,04%</t>
+        </is>
+      </c>
+      <c r="V29" s="2" t="inlineStr">
+        <is>
+          <t>4,48%</t>
+        </is>
+      </c>
+      <c r="W29" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -2541,70 +3677,112 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>65907</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>171432</t>
+        </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>27,4%</t>
+          <t>151485</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>18,43%</t>
+          <t>194441</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>38,87%</t>
-        </is>
-      </c>
-      <c r="H30" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>43797</v>
+          <t>36,24%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>32,03%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>41,11%</t>
+        </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>631</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>417738</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>7,72%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>80</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>109704</v>
+          <t>362074</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>522294</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>49,9%</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>43,25%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>62,4%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>14,33%</t>
+          <t>847</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>589170</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>531001</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>705891</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
+        <is>
+          <t>44,97%</t>
+        </is>
+      </c>
+      <c r="V30" s="2" t="inlineStr">
+        <is>
+          <t>40,53%</t>
+        </is>
+      </c>
+      <c r="W30" s="2" t="inlineStr">
+        <is>
+          <t>53,88%</t>
         </is>
       </c>
     </row>
@@ -2612,70 +3790,112 @@
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="D31" s="2" t="n">
-        <v>77113</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>109309</t>
+        </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>32,06%</t>
+          <t>93077</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>22,41%</t>
+          <t>129144</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>42,73%</t>
-        </is>
-      </c>
-      <c r="H31" s="2" t="n">
-        <v>483</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>305623</v>
+          <t>23,11%</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>19,68%</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>40,29%</t>
+          <t>321</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>228787</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="n">
-        <v>518</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>382736</v>
+          <t>176042</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>299551</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>27,33%</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>38,31%</t>
+          <t>21,03%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>41,58%</t>
+          <t>445</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>338096</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>287281</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>418344</t>
+        </is>
+      </c>
+      <c r="U31" s="2" t="inlineStr">
+        <is>
+          <t>25,81%</t>
+        </is>
+      </c>
+      <c r="V31" s="2" t="inlineStr">
+        <is>
+          <t>21,93%</t>
+        </is>
+      </c>
+      <c r="W31" s="2" t="inlineStr">
+        <is>
+          <t>31,93%</t>
         </is>
       </c>
     </row>
@@ -2683,70 +3903,112 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D32" s="2" t="n">
-        <v>32184</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>94416</t>
+        </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>77651</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>114471</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
-        </is>
-      </c>
-      <c r="H32" s="2" t="n">
-        <v>575</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>373544</v>
+          <t>19,96%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>16,42%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>24,2%</t>
+        </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>49,25%</t>
+          <t>265</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>45,66%</t>
+          <t>149912</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>52,5%</t>
-        </is>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>591</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>405728</v>
+          <t>110529</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>172473</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>17,91%</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>40,61%</t>
+          <t>13,2%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="R32" s="2" t="inlineStr">
+        <is>
+          <t>244327</t>
+        </is>
+      </c>
+      <c r="S32" s="2" t="inlineStr">
+        <is>
+          <t>201222</t>
+        </is>
+      </c>
+      <c r="T32" s="2" t="inlineStr">
+        <is>
+          <t>274883</t>
+        </is>
+      </c>
+      <c r="U32" s="2" t="inlineStr">
+        <is>
+          <t>18,65%</t>
+        </is>
+      </c>
+      <c r="V32" s="2" t="inlineStr">
+        <is>
+          <t>15,36%</t>
+        </is>
+      </c>
+      <c r="W32" s="2" t="inlineStr">
+        <is>
+          <t>20,98%</t>
         </is>
       </c>
     </row>
@@ -2757,20 +4019,24 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="C33" s="2" t="n">
-        <v>112</v>
-      </c>
-      <c r="D33" s="2" t="n">
-        <v>240507</v>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>472993</t>
+        </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>472993</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>472993</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -2778,32 +4044,40 @@
           <t>100%</t>
         </is>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>1155</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>758535</v>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>1286</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>837069</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M33" s="2" t="n">
-        <v>1267</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>999042</v>
+          <t>837069</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>837069</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
@@ -2816,6 +4090,36 @@
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>1831</t>
+        </is>
+      </c>
+      <c r="R33" s="2" t="inlineStr">
+        <is>
+          <t>1310061</t>
+        </is>
+      </c>
+      <c r="S33" s="2" t="inlineStr">
+        <is>
+          <t>1310061</t>
+        </is>
+      </c>
+      <c r="T33" s="2" t="inlineStr">
+        <is>
+          <t>1310061</t>
+        </is>
+      </c>
+      <c r="U33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V33" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W33" s="2" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
@@ -2824,75 +4128,117 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No ha trabajado</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Entrenamiento físico varias veces a la semana</t>
-        </is>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>322</v>
-      </c>
-      <c r="D34" s="2" t="n">
-        <v>389240</v>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>65303</t>
+        </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>11,56%</t>
+          <t>45259</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>89575</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="n">
-        <v>322</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>231770</v>
+          <t>27,15%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>18,82%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>37,24%</t>
+        </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>35570</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
-        </is>
-      </c>
-      <c r="M34" s="2" t="n">
-        <v>644</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>621010</v>
+          <t>25914</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>50001</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>4,69%</t>
+        </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>6,59%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="R34" s="2" t="inlineStr">
+        <is>
+          <t>100873</t>
+        </is>
+      </c>
+      <c r="S34" s="2" t="inlineStr">
+        <is>
+          <t>77142</t>
+        </is>
+      </c>
+      <c r="T34" s="2" t="inlineStr">
+        <is>
+          <t>130854</t>
+        </is>
+      </c>
+      <c r="U34" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="V34" s="2" t="inlineStr">
+        <is>
+          <t>7,72%</t>
+        </is>
+      </c>
+      <c r="W34" s="2" t="inlineStr">
+        <is>
+          <t>13,1%</t>
         </is>
       </c>
     </row>
@@ -2900,70 +4246,112 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Actividad física regular, varias veces al mes</t>
-        </is>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>334</v>
-      </c>
-      <c r="D35" s="2" t="n">
-        <v>403255</v>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>65907</t>
+        </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>11,98%</t>
+          <t>43923</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>90966</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
-        </is>
-      </c>
-      <c r="H35" s="2" t="n">
-        <v>275</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>211995</v>
+          <t>27,4%</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>18,26%</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>37,82%</t>
+        </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>50</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>43797</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="M35" s="2" t="n">
-        <v>609</v>
-      </c>
-      <c r="N35" s="2" t="n">
-        <v>615250</v>
+          <t>32430</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>58688</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>8,87%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>7,67%</t>
+          <t>7,74%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="R35" s="2" t="inlineStr">
+        <is>
+          <t>109704</t>
+        </is>
+      </c>
+      <c r="S35" s="2" t="inlineStr">
+        <is>
+          <t>84076</t>
+        </is>
+      </c>
+      <c r="T35" s="2" t="inlineStr">
+        <is>
+          <t>141342</t>
+        </is>
+      </c>
+      <c r="U35" s="2" t="inlineStr">
+        <is>
+          <t>10,98%</t>
+        </is>
+      </c>
+      <c r="V35" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="W35" s="2" t="inlineStr">
+        <is>
+          <t>14,15%</t>
         </is>
       </c>
     </row>
@@ -2971,70 +4359,112 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Alguna actividad física o deportiva ocasional</t>
-        </is>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>1499</v>
-      </c>
-      <c r="D36" s="2" t="n">
-        <v>1532580</v>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>77113</t>
+        </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>54697</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>40,66%</t>
+          <t>104376</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>59,21%</t>
-        </is>
-      </c>
-      <c r="H36" s="2" t="n">
-        <v>2511</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>1770049</v>
+          <t>32,06%</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>22,74%</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>43,4%</t>
+        </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>49,58%</t>
+          <t>483</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>45,52%</t>
+          <t>305623</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
-        </is>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>4010</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>3302629</v>
+          <t>282047</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>329992</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>40,29%</t>
+        </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>47,61%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>44,0%</t>
+          <t>43,5%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>56,21%</t>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="R36" s="2" t="inlineStr">
+        <is>
+          <t>382736</t>
+        </is>
+      </c>
+      <c r="S36" s="2" t="inlineStr">
+        <is>
+          <t>347714</t>
+        </is>
+      </c>
+      <c r="T36" s="2" t="inlineStr">
+        <is>
+          <t>418475</t>
+        </is>
+      </c>
+      <c r="U36" s="2" t="inlineStr">
+        <is>
+          <t>38,31%</t>
+        </is>
+      </c>
+      <c r="V36" s="2" t="inlineStr">
+        <is>
+          <t>34,8%</t>
+        </is>
+      </c>
+      <c r="W36" s="2" t="inlineStr">
+        <is>
+          <t>41,89%</t>
         </is>
       </c>
     </row>
@@ -3042,70 +4472,112 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamen</t>
-        </is>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>1136</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>1041714</v>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>21653</t>
+        </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>30,94%</t>
+          <t>8262</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>49587</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>33,98%</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="n">
-        <v>2125</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>1356142</v>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>3,44%</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>20,62%</t>
+        </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>37,99%</t>
+          <t>362</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>30,81%</t>
+          <t>220557</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
-        </is>
-      </c>
-      <c r="M37" s="2" t="n">
-        <v>3261</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>2397856</v>
+          <t>199467</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>245364</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>29,08%</t>
+        </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>34,57%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>37,02%</t>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="R37" s="2" t="inlineStr">
+        <is>
+          <t>242210</t>
+        </is>
+      </c>
+      <c r="S37" s="2" t="inlineStr">
+        <is>
+          <t>213198</t>
+        </is>
+      </c>
+      <c r="T37" s="2" t="inlineStr">
+        <is>
+          <t>272826</t>
+        </is>
+      </c>
+      <c r="U37" s="2" t="inlineStr">
+        <is>
+          <t>24,24%</t>
+        </is>
+      </c>
+      <c r="V37" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="W37" s="2" t="inlineStr">
+        <is>
+          <t>27,31%</t>
         </is>
       </c>
     </row>
@@ -3113,75 +4585,912 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>3291</v>
-      </c>
-      <c r="D38" s="2" t="n">
-        <v>3366789</v>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>10531</t>
+        </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>3377</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>24947</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="n">
-        <v>5233</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>3569956</v>
+          <t>4,38%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>10,37%</t>
+        </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>213</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>152987</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>8524</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>6936745</v>
+          <t>132431</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>177758</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>20,17%</t>
+        </is>
       </c>
       <c r="O38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="P38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>23,43%</t>
         </is>
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="R38" s="2" t="inlineStr">
+        <is>
+          <t>163518</t>
+        </is>
+      </c>
+      <c r="S38" s="2" t="inlineStr">
+        <is>
+          <t>139147</t>
+        </is>
+      </c>
+      <c r="T38" s="2" t="inlineStr">
+        <is>
+          <t>188800</t>
+        </is>
+      </c>
+      <c r="U38" s="2" t="inlineStr">
+        <is>
+          <t>16,37%</t>
+        </is>
+      </c>
+      <c r="V38" s="2" t="inlineStr">
+        <is>
+          <t>13,93%</t>
+        </is>
+      </c>
+      <c r="W38" s="2" t="inlineStr">
+        <is>
+          <t>18,9%</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>240507</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>240507</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>240507</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>758535</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>758535</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>758535</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q39" s="2" t="inlineStr">
+        <is>
+          <t>1267</t>
+        </is>
+      </c>
+      <c r="R39" s="2" t="inlineStr">
+        <is>
+          <t>999042</t>
+        </is>
+      </c>
+      <c r="S39" s="2" t="inlineStr">
+        <is>
+          <t>999042</t>
+        </is>
+      </c>
+      <c r="T39" s="2" t="inlineStr">
+        <is>
+          <t>999042</t>
+        </is>
+      </c>
+      <c r="U39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W39" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Entrenamiento físico varias veces a la semana (incluye actividad física varias veces a la semana)</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>389240</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>303409</t>
+        </is>
+      </c>
+      <c r="F40" s="2" t="inlineStr">
+        <is>
+          <t>443078</t>
+        </is>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>11,56%</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>13,16%</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>231770</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>189285</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>266169</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>6,49%</t>
+        </is>
+      </c>
+      <c r="O40" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
+        </is>
+      </c>
+      <c r="P40" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="Q40" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="R40" s="2" t="inlineStr">
+        <is>
+          <t>621010</t>
+        </is>
+      </c>
+      <c r="S40" s="2" t="inlineStr">
+        <is>
+          <t>527976</t>
+        </is>
+      </c>
+      <c r="T40" s="2" t="inlineStr">
+        <is>
+          <t>689511</t>
+        </is>
+      </c>
+      <c r="U40" s="2" t="inlineStr">
+        <is>
+          <t>8,95%</t>
+        </is>
+      </c>
+      <c r="V40" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
+        </is>
+      </c>
+      <c r="W40" s="2" t="inlineStr">
+        <is>
+          <t>9,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>Actividad física regular, varias veces al mes (tenis, gimnasia, correr, natación, ciclismo, etc.)</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>403255</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>311926</t>
+        </is>
+      </c>
+      <c r="F41" s="2" t="inlineStr">
+        <is>
+          <t>461182</t>
+        </is>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>11,98%</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>9,26%</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>211995</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>171218</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>244977</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>5,94%</t>
+        </is>
+      </c>
+      <c r="O41" s="2" t="inlineStr">
+        <is>
+          <t>4,8%</t>
+        </is>
+      </c>
+      <c r="P41" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="Q41" s="2" t="inlineStr">
+        <is>
+          <t>609</t>
+        </is>
+      </c>
+      <c r="R41" s="2" t="inlineStr">
+        <is>
+          <t>615250</t>
+        </is>
+      </c>
+      <c r="S41" s="2" t="inlineStr">
+        <is>
+          <t>521562</t>
+        </is>
+      </c>
+      <c r="T41" s="2" t="inlineStr">
+        <is>
+          <t>687098</t>
+        </is>
+      </c>
+      <c r="U41" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="V41" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="W41" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>Alguna actividad física o deportiva ocasional (caminar, pasear en bici, jardinería, gimnasia suave, etc.)</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>1499</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>1532580</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>1370758</t>
+        </is>
+      </c>
+      <c r="F42" s="2" t="inlineStr">
+        <is>
+          <t>1947861</t>
+        </is>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>45,52%</t>
+        </is>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>40,71%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>57,86%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>2511</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>1770049</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>1618849</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>2087070</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>49,58%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>45,35%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>58,46%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>4010</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>3302629</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>3053003</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>3826876</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>47,61%</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>44,01%</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
+          <t>55,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio. Mi tiempo libre lo ocupo casi completamente sedentario (leer, TV., cine, etc.)</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>591851</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>461122</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>658891</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>17,58%</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>19,57%</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>1168</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>737769</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>616814</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>825426</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>20,67%</t>
+        </is>
+      </c>
+      <c r="O43" s="2" t="inlineStr">
+        <is>
+          <t>17,28%</t>
+        </is>
+      </c>
+      <c r="P43" s="2" t="inlineStr">
+        <is>
+          <t>23,12%</t>
+        </is>
+      </c>
+      <c r="Q43" s="2" t="inlineStr">
+        <is>
+          <t>1809</t>
+        </is>
+      </c>
+      <c r="R43" s="2" t="inlineStr">
+        <is>
+          <t>1329620</t>
+        </is>
+      </c>
+      <c r="S43" s="2" t="inlineStr">
+        <is>
+          <t>1156995</t>
+        </is>
+      </c>
+      <c r="T43" s="2" t="inlineStr">
+        <is>
+          <t>1447888</t>
+        </is>
+      </c>
+      <c r="U43" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="V43" s="2" t="inlineStr">
+        <is>
+          <t>16,68%</t>
+        </is>
+      </c>
+      <c r="W43" s="2" t="inlineStr">
+        <is>
+          <t>20,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>No hago ejercicio, no tengo tiempo libre</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>449863</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>345116</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>506034</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>13,36%</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>10,25%</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>957</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>618373</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>505556</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>680465</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>17,32%</t>
+        </is>
+      </c>
+      <c r="O44" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+      <c r="P44" s="2" t="inlineStr">
+        <is>
+          <t>19,06%</t>
+        </is>
+      </c>
+      <c r="Q44" s="2" t="inlineStr">
+        <is>
+          <t>1452</t>
+        </is>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>1068236</t>
+        </is>
+      </c>
+      <c r="S44" s="2" t="inlineStr">
+        <is>
+          <t>926228</t>
+        </is>
+      </c>
+      <c r="T44" s="2" t="inlineStr">
+        <is>
+          <t>1162066</t>
+        </is>
+      </c>
+      <c r="U44" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="V44" s="2" t="inlineStr">
+        <is>
+          <t>13,35%</t>
+        </is>
+      </c>
+      <c r="W44" s="2" t="inlineStr">
+        <is>
+          <t>16,75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>3291</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>3366789</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>3366789</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>3366789</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>5233</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>3569956</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>3569956</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>3569956</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q45" s="2" t="inlineStr">
+        <is>
+          <t>8524</t>
+        </is>
+      </c>
+      <c r="R45" s="2" t="inlineStr">
+        <is>
+          <t>6936745</t>
+        </is>
+      </c>
+      <c r="S45" s="2" t="inlineStr">
+        <is>
+          <t>6936745</t>
+        </is>
+      </c>
+      <c r="T45" s="2" t="inlineStr">
+        <is>
+          <t>6936745</t>
+        </is>
+      </c>
+      <c r="U45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W45" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
@@ -3189,17 +5498,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A34:A38"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A24:A28"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="A19:A23"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P34A_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P34A_2023-Clase-trans_orig.xlsx
@@ -4128,7 +4128,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
